--- a/loaded_influencer_data/nguyenthulanh304/nguyenthulanh304_video.xlsx
+++ b/loaded_influencer_data/nguyenthulanh304/nguyenthulanh304_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7486099339773857032</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7489093197864455479</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30200</v>
+        <v>21700</v>
       </c>
       <c r="C2" t="n">
-        <v>979</v>
+        <v>566</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,97 +528,97 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WOSADO 자석 속눈썹으로 눈에 터치 추가 - 사용하기 쉽고 편리하며 사용해 보셨습니까?#wosado #wosadovn</t>
+          <t>Sạch sâu dịu nhẹ, da mụ.n cũng ưng #hiruscarvietnam #antiacnes #gofluence #gofluencevietnam</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.274834437086092</v>
+        <v>2.645161290322581</v>
       </c>
       <c r="I2" t="n">
-        <v>3.241721854304636</v>
+        <v>2.608294930875576</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03311258278145696</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003311258278145695</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7485361344196152584</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7487794965804780805</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58300</v>
+        <v>47300</v>
       </c>
       <c r="C3" t="n">
-        <v>1422</v>
+        <v>1640</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"부푼 머리, 향긋한 자몽 - 비밀은 여기 있습니다! ✨🍊 매끄럽고 건강한 머리카락을 좋아하는 사람은 지금 시도하십시오!"</t>
+          <t>Đây là trải nghiệm của mình với em mi nam châm Wosado , bạn nào dùng rồi để lại comment cho mình biết với nha</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.447684391080617</v>
+        <v>3.488372093023256</v>
       </c>
       <c r="I3" t="n">
-        <v>2.439108061749571</v>
+        <v>3.46723044397463</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008576329331046311</v>
+        <v>0.02114164904862579</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003430531732418525</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7485048978984209682</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7487591864049093943</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49100</v>
+        <v>39100</v>
       </c>
       <c r="C4" t="n">
-        <v>1049</v>
+        <v>1366</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -628,47 +628,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>머리가 가려졌어요! 🥰 푸텔로로 머리를 치료하고 있는데 머리가 점점 커지고 있어요! 나랑 같이 해 볼 사람 있어?#putelo</t>
+          <t>Mình chăm da đều với BMB Tocopheryl Acetate, cảm giác da ngày càng ổn áp! Có ai cũng mê em này không?</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.146639511201629</v>
+        <v>3.514066496163683</v>
       </c>
       <c r="I4" t="n">
-        <v>2.136456211812627</v>
+        <v>3.493606138107417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01018329938900204</v>
+        <v>0.02046035805626599</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002036659877800407</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7484254205352381703</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7487248004999580983</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61600</v>
+        <v>52700</v>
       </c>
       <c r="C5" t="n">
-        <v>1523</v>
+        <v>1446</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -678,47 +678,47 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>가벼운 터치가 즉각적으로 메이크업을 날려버립니다! 메이크업 제거 왁스는 피부를 깊게 청소하고 여전히 부드럽게 해줍니다.</t>
+          <t>Da mụn cũng cần chăm đúng cách ! Dr.Nano Silver nhẹ mặt, dễ chịu, ai thử rồi cho mình xin cảm nhận nha !</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.49512987012987</v>
+        <v>2.766603415559772</v>
       </c>
       <c r="I5" t="n">
-        <v>2.472402597402597</v>
+        <v>2.743833017077799</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.02277039848197343</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001623376623376623</v>
+        <v>0.00189753320683112</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7482779696422243602</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7487202540942036230</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97500</v>
+        <v>59500</v>
       </c>
       <c r="C6" t="n">
-        <v>3356</v>
+        <v>1852</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -728,147 +728,147 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>가벼운 터치가 즉각적으로 메이크업을 날려버립니다! 메이크업 제거 왁스는 피부를 깊게 청소하고 여전히 부드럽게 해줍니다.</t>
+          <t>VANESA KR Colorkey Brush - lớp nền mịn đẹp, che phủ tự nhiên, giữ da luôn tươi tắn suốt ngày dài ! #vanesa</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.458461538461539</v>
+        <v>3.132773109243697</v>
       </c>
       <c r="I6" t="n">
-        <v>3.442051282051282</v>
+        <v>3.112605042016807</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01641025641025641</v>
+        <v>0.02016806722689076</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003076923076923077</v>
+        <v>0.005042016806722689</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7481112304545713416</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7486099339773857032</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103900</v>
+        <v>67100</v>
       </c>
       <c r="C7" t="n">
-        <v>2050</v>
+        <v>2714</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>스프레이 잠금 배경 - 하루 종일 메이크업을 유지하는 비결#Chamagic #mattesettingspray #settingspray</t>
+          <t>Thêm điểm nhấn cho đôi mắt với mi nam châm WOSADO - Dễ dùng, tiện lợi, bạn đã thử chưa ? #wosado #wosadovn</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.973051010587103</v>
+        <v>4.067064083457526</v>
       </c>
       <c r="I7" t="n">
-        <v>1.973051010587103</v>
+        <v>4.044709388971683</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.02235469448584203</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009624639076034648</v>
+        <v>0.001490312965722802</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7479423154260020498</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7485361344196152584</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>127300</v>
+        <v>107100</v>
       </c>
       <c r="C8" t="n">
-        <v>2518</v>
+        <v>3274</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>피부 관리하세요, 숙녀 여러분.#taydachetluxmom #taydachet #luxmom #taydachetvatly</t>
+          <t>“Tóc bồng bềnh, thơm dịu hương bưởi – bí quyết nằm ở đây! ✨🍊 Ai mê tóc suôn mềm, khỏe đẹp thì thử ngay nha!</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.999214454045562</v>
+        <v>3.070028011204482</v>
       </c>
       <c r="I8" t="n">
-        <v>1.978004713275727</v>
+        <v>3.056956115779645</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02120974076983503</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007855459544383346</v>
+        <v>0.004668534080298786</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7478841929287994632</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7485048978984209682</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130900</v>
+        <v>79900</v>
       </c>
       <c r="C9" t="n">
-        <v>2610</v>
+        <v>2383</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -878,1340 +878,1340 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Tóc con lấp ló nè ! 🥰 Mình đang dưỡng tóc với Putelo, thấy tóc ngày càng bồng bềnh thích ghê ! Ai thử cùng mình không ?</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.992490613266583</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.982478097622028</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01001251564455569</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.002503128911138924</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7484254205352381703</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>96000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2764</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Chạm nhẹ là tan, cuốn bay lớp makeup ! Sáp tẩy trang giúp da sạch sâu mà vẫn êm dịu đây nha #ladore</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.89375</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.879166666666667</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01458333333333334</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.001041666666666667</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7482779696422243602</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>97500</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3356</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>가벼운 터치가 즉각적으로 메이크업을 날려버립니다! 메이크업 제거 왁스는 피부를 깊게 청소하고 여전히 부드럽게 해줍니다.</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3.458461538461539</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.442051282051282</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01641025641025641</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003076923076923077</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7481112304545713416</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>103900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>스프레이 잠금 배경 - 하루 종일 메이크업을 유지하는 비결#Chamagic #mattesettingspray #settingspray</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1.973051010587103</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.973051010587103</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.009624639076034648</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7479423154260020498</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>127300</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2518</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>피부 관리하세요, 숙녀 여러분.#taydachetluxmom #taydachet #luxmom #taydachetvatly</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.999214454045562</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.978004713275727</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02120974076983503</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0007855459544383346</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7478841929287994632</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>130900</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>부드러운 날개, 하루 종일 자신만만한 향기, 보습 세럼으로 후각을 예방하는 DOVE#dovenganmui #doveserum</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>2.007639419404125</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>1.9938884644767</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.01375095492742552</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>0.001527883880825057</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7478678629199727880</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>128900</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>2610</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>18</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>부드러운 날개, 하루 종일 자신만만한 향기, 보습 세럼으로 후각을 예방하는 DOVE#dovenganmui #doveserum</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>2.038789759503491</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>2.024825446082234</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.01396431342125679</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>0.001551590380139643</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7478306238304947463</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>97800</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>2433</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>자신뿐만 아니라 이 컨디셔너와 에센셜 오일 세트는 머리카락을 돌보고 싶은 여성에게도 매우 의미 있는 선물입니다.</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>2.507157464212679</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>2.487730061349693</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.01942740286298568</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>0.002044989775051125</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7476433657222139144</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>163800</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>2123</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>이 콜라겐 음료 파우더를 사용해 보신 분들은 댓글을 달고 직접 느껴보세요.#collagen #botuongcollagen #bblab</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>1.304639804639805</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>1.296092796092796</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.008547008547008548</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>0.004273504273504274</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7476032106775498002</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>116400</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>3541</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>23</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>갈색 반점, 어두운 반점이 있는 경우 저를 참조하십시오.#kemnghewonmom #kemnghe #wonmom</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>3.061855670103093</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>3.042096219931271</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.01975945017182131</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.001718213058419244</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7475706673043180808</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B19" t="n">
         <v>118800</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C19" t="n">
         <v>2494</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>2.115319865319865</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I19" t="n">
         <v>2.099326599326599</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.01599326599326599</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L19" t="n">
         <v>0.00505050505050505</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7475324097015123208</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B20" t="n">
         <v>196300</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>2751</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>6</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>VIETNIPA 코코넛 워터 슈가를 사용해 보셨습니까?#duongduanuoc #duongvietnipa #gofitmart</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>1.407539480387163</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>1.401426388181355</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.006113092205807438</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L20" t="n">
         <v>0.003056546102903719</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7474971026007264530</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>155200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>4835</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>102</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>체취는 자신감을 잃게 만들 수 있습니다.#conadin #conadinrollon #khumui #giamthamnach</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>3.128221649484536</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>3.115335051546392</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.01288659793814433</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.06572164948453608</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7472386579386961160</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>211300</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>3643</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>여드름을 돌보고 싶다면 닥터 레오의 주머니에 넣으세요.#chammundrleo #drleo #drleovn #chamsocda</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>1.731661145291056</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>1.724088973024136</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.007572172266919073</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>0.002839564600094652</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7469029776410430738</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>103300</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>5640</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D23" t="n">
         <v>32</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>36</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>이 세안을 경험해 봅시다.#thorakao #suaruamat</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>5.490803484995159</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>5.459825750242014</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.03097773475314617</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>0.03484995159728945</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7467533735747980551</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>97200</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>1563</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>스킨케어 콤보가 여기 있습니다.#NeedleFreeFiller #Hydrogenmask #ParkHangSeo #Pickk #Skincare</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>1.618312757201646</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>1.608024691358025</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.0102880658436214</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>0.01748971193415638</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7466438207446535431</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>119800</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>2070</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>28</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>지금 이것을 주머니에 넣으십시오.#gmeelanvn #phannuoc #cushion #phannen #goclamdep</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>1.735392320534224</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>1.72787979966611</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.007512520868113522</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.02337228714524207</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7463086214329928967</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>72700</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>2319</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>11</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>면 토너를 선택하고 LIKADO를 잊지 마십시오.#likado #bongdaptoner #bongdaptonerlikado</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>3.20907840440165</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>3.189821182943604</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.01925722145804677</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.01513067400275103</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7462711998892051719</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>125300</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>1189</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>22</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>나와 함께 이 차를 마셔라.#trathaomoc #tralanam #vienlongherbal #wellnesslifestyle #halago</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>0.956903431763767</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>0.9489225857940941</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.007980845969672785</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.01755786113328013</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7461240618598059282</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>80000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>1682</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>18</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>24</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>이것을 주머니에 넣으십시오.#meiking #kemlotmeiking #kemlot</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>2.125</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>2.1025</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.0225</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>0.03</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7459403594651995399</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>97600</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>1650</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>47</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Cùng trải nghiệm và theo dõi quá trình chăm da của mình nha #NeedleFreeFiller #Hydrogenmask #ParkHangSeo #Pickk #Skincare #thẩmmỹviện #LàmĐẹp #TrắngDa #CăngBóng #kbeauty #Jeudemeure #DermiShuttle #Filler #táitạoda #LàmSạchSâu #makeupremover #OilFree #SữaRửaMặtDưỡngẨm #NângCơ #Lifting #FillerKhôngTiêm #KemDưỡngDa #Kemtáitạo #sangdachonglaohoa #LãoHóaNgược #chốngnắng #Kemchốngnắngnângtone #ToneUp #DermallMatrix #mask #matna #matnathach #mặtnạngủ #Danongwon #kombucha #Dailykombucha #trakombucha #13vị</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>1.691598360655738</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>1.690573770491803</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.001024590163934426</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>0.04815573770491803</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7458649902889979154</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>65099</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>1252</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>59</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>이것을 주머니에 넣으십시오.#zeesea #phấnnước #phannuoc #kiemdau #phanphukiemdau #phannuoczeesea</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>1.94473033379929</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>1.923224627106407</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.02150570669288315</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.09063119249143611</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7457179034846317842</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>91000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>987</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>44</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>피부 주기 모니터링을 경험해 봅시다 ckk#needlefreefiller #hydrogenmask #parkhangseo #par #skincase</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>1.096703296703297</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>1.084615384615385</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.01208791208791209</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.04835164835164835</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7454923043178040583</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>52600</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>1317</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>14</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>41</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>나와 함께 Tet을 돌봐주세요#yumie #duongda #body</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>2.53041825095057</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>2.503802281368821</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.02661596958174905</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.0779467680608365</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7454550179027373319</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>91300</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>773</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>12</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>27</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>탄 밥이 바삭바삭하니 맛이 좋은 조각을 드세요.#comchaydaynoi #comchaychabong #manfood #comchay #doanvat</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>0.859802847754655</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>0.8466593647316538</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0131434830230011</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>0.02957283680175246</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7453050134960721159</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>44200</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>1477</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>20</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>43</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>피부를 위해 부드럽게 클렌징@GMEELAN_SKINCRAE_VN @GMEELAN.Official #tẩytếbàochết #skincare</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>3.386877828054299</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>3.341628959276018</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04524886877828054</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>0.09728506787330317</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7452690107406060807</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>83100</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>475</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>이것을 모든 사람의 부엌에 추가하십시오.#mậtongsạch #mật_ong_nguyên_chất #thuyenphongmat</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>0.5812274368231047</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>0.5716004813477737</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.009626955475330927</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>0.01083032490974729</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nguyenthulanh304/video/7450366728107756818</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>46600</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>994</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>51</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>지금 가볍고 얇은 배경 주머니를 위해 이 VANESA 쿠션 케업#vanesa #cushion #CUs</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2.145922746781116</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.133047210300429</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.0128755364806867</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.1094420600858369</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2024-12-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7448634863499922695</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>56200</v>
-      </c>
-      <c r="C32" t="n">
-        <v>564</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>12</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>강아지 사료 씨앗@Đoán Giá Săn Deal #maxime #doangiasandeal #MAXIME #thucanchochocon</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1.00355871886121</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.00355871886121</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.02135231316725979</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447454074137611527</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>77600</v>
-      </c>
-      <c r="C33" t="n">
-        <v>759</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>모두가 인삼을 먹어볼 가치가 있습니다.#K #KorenanSnack #koreandessert #koreansouvenirs #koreantea</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>0.990979381443299</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.9780927835051547</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.01288659793814433</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.005154639175257732</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447422605604244744</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>77000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>11</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>나처럼 이것을 사용하는 사람이 있습니까?#gmeelanvn #tẩytếbàochết #skincar #promo1212</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1.677922077922078</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.667532467532468</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.01038961038961039</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.01428571428571429</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2024-12-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447123104028970248</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>75200</v>
-      </c>
-      <c r="C35" t="n">
-        <v>852</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>신뢰할 수 있는 다이렉트 쇼핑 플랫폼의 정품 Torriden 부스에서 찾을 수 있습니다.#Torriden #toneup #suncream #skincare</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1.146276595744681</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.132978723404255</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.01329787234042553</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.009308510638297872</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2024-12-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7446738294483913991</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>82400</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1007</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -2220,98 +2220,98 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>곧 다가와 아름답게 만듭니다.@DERMASHARE VIETNAM STORE #dermashare #kemduongam #kemduongdadaumun</t>
+          <t>지금 가볍고 얇은 배경 주머니를 위해 이 VANESA 쿠션 케업#vanesa #cushion #CUs</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.229368932038835</v>
+        <v>2.145922746781116</v>
       </c>
       <c r="I36" t="n">
-        <v>1.222087378640777</v>
+        <v>2.133047210300429</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.007281553398058253</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002427184466019418</v>
+        <v>0.1094420600858369</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-26</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7445626852011461895</t>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7448634863499922695</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121800</v>
+        <v>56200</v>
       </c>
       <c r="C37" t="n">
-        <v>991</v>
+        <v>564</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>이 세안은 모든 피부 타입에 적합합니다.#bloomingvietnam #Tenzero #lamdep #Cushion #SRM #Suaruamat</t>
+          <t>강아지 사료 씨앗@Đoán Giá Săn Deal #maxime #doangiasandeal #MAXIME #thucanchochocon</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.8284072249589491</v>
+        <v>1.00355871886121</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8136288998357964</v>
+        <v>1.00355871886121</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01477832512315271</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.02135231316725979</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-20</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7442674586069503239</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447454074137611527</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77800</v>
+        <v>77600</v>
       </c>
       <c r="C38" t="n">
-        <v>2471</v>
+        <v>759</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -2320,248 +2320,248 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>모두가 인삼을 먹어볼 가치가 있습니다.#K #KorenanSnack #koreandessert #koreansouvenirs #koreantea</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.990979381443299</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9780927835051547</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01288659793814433</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.005154639175257732</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447422605604244744</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>77000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>나처럼 이것을 사용하는 사람이 있습니까?#gmeelanvn #tẩytếbàochết #skincar #promo1212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1.677922077922078</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.667532467532468</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01038961038961039</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7447123104028970248</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C40" t="n">
+        <v>852</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>신뢰할 수 있는 다이렉트 쇼핑 플랫폼의 정품 Torriden 부스에서 찾을 수 있습니다.#Torriden #toneup #suncream #skincare</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1.146276595744681</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.132978723404255</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01329787234042553</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.009308510638297872</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7446738294483913991</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>곧 다가와 아름답게 만듭니다.@DERMASHARE VIETNAM STORE #dermashare #kemduongam #kemduongdadaumun</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1.229368932038835</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.222087378640777</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.007281553398058253</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.002427184466019418</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7445626852011461895</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>121800</v>
+      </c>
+      <c r="C42" t="n">
+        <v>991</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>이 세안은 모든 피부 타입에 적합합니다.#bloomingvietnam #Tenzero #lamdep #Cushion #SRM #Suaruamat</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>3.188946015424165</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.176092544987146</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.01285347043701799</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.01799485861182519</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2024-12-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7441956003987475730</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>90900</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1416</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Ăn thử em nó đi nha mọi người #changa #changacabuno #cabunofood #ancungtiktok #anvatngon #xuhuong #xh</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1.568756875687569</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.557755775577558</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.011001100110011</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0066006600660066</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2024-11-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7440444678194941202</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>62800</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1750</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>맛있어요, 여러분, 먹어보세요.#ganyuan #hatmixvi #hatmixvidinhduong #kamyuens #xh</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2.799363057324841</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.786624203821656</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.01273885350318471</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.009554140127388535</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7440086813798124808</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>72300</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1229</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>이 물 필터를 사용해 보셨습니까?#sawa #sawavietnam #daulocnuoc #daulocnuoctaivoi #voilocsawa #s85p #xh</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1.702627939142462</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.699861687413555</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.00276625172890733</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.005532503457814661</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2024-11-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439709279768104210</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>59400</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1486</v>
-      </c>
-      <c r="D42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>아직 Binh Dinh 특산품을 먹은 사람이 있습니까? (남부 지역만 해당)#charam #dacsan #charamtomdatbinhdinh</t>
-        </is>
-      </c>
       <c r="H42" t="n">
-        <v>2.518518518518519</v>
+        <v>0.8284072249589491</v>
       </c>
       <c r="I42" t="n">
-        <v>2.501683501683502</v>
+        <v>0.8136288998357964</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01683501683501683</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="L42" t="n">
-        <v>0.008417508417508417</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-12-10</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439384090563841298</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7442674586069503239</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100300</v>
+        <v>77800</v>
       </c>
       <c r="C43" t="n">
-        <v>1136</v>
+        <v>2471</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2570,151 +2570,151 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>섬유질을 가지고 가세요.#botxanhhuuco #botxanhdragonsuperfoods #gofitmart #xuhuong</t>
+          <t>이 세안은 모든 피부 타입에 적합합니다.#bloomingvietnam #Tenzero #lamdep #Cushion #SRM #Suaruamat</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.142572283150548</v>
+        <v>3.188946015424165</v>
       </c>
       <c r="I43" t="n">
-        <v>1.132602193419741</v>
+        <v>3.176092544987146</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.009970089730807577</v>
+        <v>0.01285347043701799</v>
       </c>
       <c r="L43" t="n">
-        <v>0.004985044865403789</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-7</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439200782647364871</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7441956003987475730</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84400</v>
+        <v>90900</v>
       </c>
       <c r="C44" t="n">
-        <v>1647</v>
+        <v>1416</v>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>모든 곡물이 바삭바삭하고 맛있습니다.#ngoneptimranggion #havafoods #DienBien #ngoneptim #xh</t>
+          <t>Ăn thử em nó đi nha mọi người #changa #changacabuno #cabunofood #ancungtiktok #anvatngon #xuhuong #xh</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.968009478672986</v>
+        <v>1.568756875687569</v>
       </c>
       <c r="I44" t="n">
-        <v>1.951421800947867</v>
+        <v>1.557755775577558</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01658767772511848</v>
+        <v>0.011001100110011</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03909952606635071</v>
+        <v>0.0066006600660066</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-29</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7438965756794080530</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7440444678194941202</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61600</v>
+        <v>62800</v>
       </c>
       <c r="C45" t="n">
-        <v>2164</v>
+        <v>1750</v>
       </c>
       <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>6</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>모든 곡물이 바삭바삭하고 맛있습니다.#ngoneptimranggion #havafoods #DienBien #ngoneptim #xh</t>
+          <t>맛있어요, 여러분, 먹어보세요.#ganyuan #hatmixvi #hatmixvidinhduong #kamyuens #xh</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3.522727272727272</v>
+        <v>2.799363057324841</v>
       </c>
       <c r="I45" t="n">
-        <v>3.512987012987013</v>
+        <v>2.786624203821656</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00974025974025974</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="L45" t="n">
-        <v>0.00487012987012987</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7438591797531512071</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7440086813798124808</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83900</v>
+        <v>72300</v>
       </c>
       <c r="C46" t="n">
-        <v>1106</v>
+        <v>1229</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2724,230 +2724,280 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>이 물 필터를 사용해 보셨습니까?#sawa #sawavietnam #daulocnuoc #daulocnuoctaivoi #voilocsawa #s85p #xh</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1.702627939142462</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.699861687413555</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.00276625172890733</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.005532503457814661</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-11-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439709279768104210</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>59400</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>아직 Binh Dinh 특산품을 먹은 사람이 있습니까? (남부 지역만 해당)#charam #dacsan #charamtomdatbinhdinh</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2.518518518518519</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.501683501683502</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.01683501683501683</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.008417508417508417</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439384090563841298</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>100300</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>섬유질을 가지고 가세요.#botxanhhuuco #botxanhdragonsuperfoods #gofitmart #xuhuong</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1.142572283150548</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.132602193419741</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.009970089730807577</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.004985044865403789</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7439200782647364871</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>84400</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>모든 곡물이 바삭바삭하고 맛있습니다.#ngoneptimranggion #havafoods #DienBien #ngoneptim #xh</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1.968009478672986</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.951421800947867</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01658767772511848</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.03909952606635071</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7438965756794080530</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>61600</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>모든 곡물이 바삭바삭하고 맛있습니다.#ngoneptimranggion #havafoods #DienBien #ngoneptim #xh</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3.522727272727272</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.512987012987013</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.00974025974025974</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.00487012987012987</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nguyenthulanh304/video/7438591797531512071</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>83900</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>사과 사이다 식초를 말아서 먹어보세요.#giamtao #giamtaomilano #giamtaogofit #gofitmart</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H51" t="n">
         <v>1.33134684147795</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I51" t="n">
         <v>1.31823599523242</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.01311084624553039</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L51" t="n">
         <v>0.004767580452920143</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7437870844564557064</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>94400</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>10</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>블랙헤드, 화이트헤드, 큰 모공을 가진 사람이라면 이 젤 마스크를 놓치지 마세요. 쿠폰이 준비되었습니다!#gmeelanvn</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1.334745762711864</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.322033898305085</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.01271186440677966</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.01059322033898305</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7436664367040449810</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>98800</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1393</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>이것을 때때로 주머니에 넣으십시오.#xitthommieng #olivus #xitthommiengolivus #xh</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1.415991902834008</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.409919028340081</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.006072874493927126</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.0111336032388664</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7435990658478869768</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>56000</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1779</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>14</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Em này nhỏ gọn dễ dàng vỏ túi mang theo quá tiện lợi luôn ha #khăn_giấy #khăn_giấy_rút #Tako_khăn_giấy #xh</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.210714285714285</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.176785714285715</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03392857142857143</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nguyenthulanh304/video/7434880847926398215</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>73200</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1779</v>
-      </c>
-      <c r="D50" t="n">
-        <v>19</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>14</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>이것은 휴대가 간편하고 휴대가 매우 편리합니다.#khăn_giấy #khăn_giấy_rút #Tako_khăn_giấy #xh</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.456284153005464</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.430327868852459</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.02595628415300547</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.01912568306010929</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
         </is>
       </c>
     </row>
